--- a/Weekly_Schedule.xlsx
+++ b/Weekly_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dan/Box Sync/Classes/PLS205/Course materials/Website/PLS205_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0807E5C3-7ABA-5149-9DB5-67D2C77831D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EEEAD9-959A-B04A-818E-BE65B1ECCC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="5040" windowWidth="27640" windowHeight="16940" xr2:uid="{9CA4B26C-C223-054A-B452-EC81C4D57631}"/>
+    <workbookView xWindow="6320" yWindow="6520" windowWidth="27640" windowHeight="16940" xr2:uid="{9CA4B26C-C223-054A-B452-EC81C4D57631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Week</t>
   </si>
@@ -80,58 +80,88 @@
     <t>17,18 (part from 2019 video)</t>
   </si>
   <si>
-    <t>[Labs/Lab_1](Lab 1)</t>
-  </si>
-  <si>
-    <t>[Labs/Lab_2](Lab 2)</t>
-  </si>
-  <si>
-    <t>[Labs/Lab_3](Lab 31)</t>
-  </si>
-  <si>
-    <t>[Labs/Lab_4](Lab 4)</t>
-  </si>
-  <si>
-    <t>[Labs/Lab_5](Lab 5)</t>
-  </si>
-  <si>
-    <t>[Labs/Lab_6](Lab 6)</t>
-  </si>
-  <si>
-    <t>[Labs/Lab_7](Lab 7)</t>
-  </si>
-  <si>
-    <t>[Labs/Lab_8](Lab 8)</t>
-  </si>
-  <si>
-    <t>[Labs/Lab_9](Lab 9)</t>
-  </si>
-  <si>
-    <t>[Labs/Lab_10](Lab 10)</t>
-  </si>
-  <si>
-    <t>[HW/HW2](HW 2)</t>
-  </si>
-  <si>
-    <t>[HW/HW1](HW 1)</t>
-  </si>
-  <si>
-    <t>[HW/HW3](HW 3)</t>
-  </si>
-  <si>
-    <t>[HW/HW4](HW 4)</t>
-  </si>
-  <si>
-    <t>[HW/HW5](HW 5)</t>
-  </si>
-  <si>
-    <t>[HW/HW6](HW 6)</t>
-  </si>
-  <si>
-    <t>[HW/HW7](HW 7)</t>
-  </si>
-  <si>
-    <t>[HW/HW8](HW 8)</t>
+    <t>Introduction to Experimental Designs, Properties of a sample</t>
+  </si>
+  <si>
+    <t>Distributions, Confidence intervals, Hypothesis testing (t-tests)</t>
+  </si>
+  <si>
+    <t>Power, Subsamples, Design tables, model assumptions, multiple treatments</t>
+  </si>
+  <si>
+    <t>Means comparisons, ANOVA, trend analysis</t>
+  </si>
+  <si>
+    <t>Experimental units, data transformations</t>
+  </si>
+  <si>
+    <t>Factorial experiments, treatment interactions, specific effects</t>
+  </si>
+  <si>
+    <t>More factorials, Plot layouts, Randomized Complete Block Designs</t>
+  </si>
+  <si>
+    <t>Generalized RCBD, Block:Trt interactions, crossed, nested and aliased variables, split plot designs</t>
+  </si>
+  <si>
+    <t>means comparisons in split plots, incomplete block designs</t>
+  </si>
+  <si>
+    <t>covariates, missing data</t>
+  </si>
+  <si>
+    <t>[HW 1](https://github.com/deruncie/PLS205_course/tree/master/HW/HW1)</t>
+  </si>
+  <si>
+    <t>[HW 2](https://github.com/deruncie/PLS205_course/tree/master/HW/HW2)</t>
+  </si>
+  <si>
+    <t>[HW 3](https://github.com/deruncie/PLS205_course/tree/master/HW/HW3)</t>
+  </si>
+  <si>
+    <t>[HW 4](https://github.com/deruncie/PLS205_course/tree/master/HW/HW4)</t>
+  </si>
+  <si>
+    <t>[HW 5](https://github.com/deruncie/PLS205_course/tree/master/HW/HW5)</t>
+  </si>
+  <si>
+    <t>[HW 6](https://github.com/deruncie/PLS205_course/tree/master/HW/HW6)</t>
+  </si>
+  <si>
+    <t>[HW 7](https://github.com/deruncie/PLS205_course/tree/master/HW/HW7)</t>
+  </si>
+  <si>
+    <t>[HW 8](https://github.com/deruncie/PLS205_course/tree/master/HW/HW8)</t>
+  </si>
+  <si>
+    <t>[Lab 1](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_1)</t>
+  </si>
+  <si>
+    <t>[Lab 2](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_2)</t>
+  </si>
+  <si>
+    <t>[Lab 31](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_3)</t>
+  </si>
+  <si>
+    <t>[Lab 4](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_4)</t>
+  </si>
+  <si>
+    <t>[Lab 5](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_5)</t>
+  </si>
+  <si>
+    <t>[Lab 6](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_6)</t>
+  </si>
+  <si>
+    <t>[Lab 7](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_7)</t>
+  </si>
+  <si>
+    <t>[Lab 8](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_8)</t>
+  </si>
+  <si>
+    <t>[Lab 9](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_9)</t>
+  </si>
+  <si>
+    <t>[Lab 10](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_10)</t>
   </si>
 </sst>
 </file>
@@ -486,11 +516,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -517,39 +548,48 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -559,11 +599,14 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -573,11 +616,14 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -587,22 +633,28 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -612,11 +664,14 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -626,11 +681,14 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -640,11 +698,14 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly_Schedule.xlsx
+++ b/Weekly_Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dan/Box Sync/Classes/PLS205/Course materials/Website/PLS205_course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deruncie/Box Sync/Classes/PLS205/Course materials/Website/PLS205_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EEEAD9-959A-B04A-818E-BE65B1ECCC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361697D1-18EA-E444-993C-2568B8E246A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6320" yWindow="6520" windowWidth="27640" windowHeight="16940" xr2:uid="{9CA4B26C-C223-054A-B452-EC81C4D57631}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Week</t>
   </si>
@@ -44,137 +44,113 @@
     <t>Topics</t>
   </si>
   <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>HW</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t>9,10</t>
-  </si>
-  <si>
-    <t>11,12</t>
-  </si>
-  <si>
-    <t>13,14</t>
-  </si>
-  <si>
-    <t>15,16</t>
-  </si>
-  <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>17,18 (part from 2019 video)</t>
-  </si>
-  <si>
-    <t>Introduction to Experimental Designs, Properties of a sample</t>
-  </si>
-  <si>
-    <t>Distributions, Confidence intervals, Hypothesis testing (t-tests)</t>
-  </si>
-  <si>
-    <t>Power, Subsamples, Design tables, model assumptions, multiple treatments</t>
-  </si>
-  <si>
-    <t>Means comparisons, ANOVA, trend analysis</t>
-  </si>
-  <si>
-    <t>Experimental units, data transformations</t>
-  </si>
-  <si>
-    <t>Factorial experiments, treatment interactions, specific effects</t>
-  </si>
-  <si>
-    <t>More factorials, Plot layouts, Randomized Complete Block Designs</t>
-  </si>
-  <si>
-    <t>Generalized RCBD, Block:Trt interactions, crossed, nested and aliased variables, split plot designs</t>
-  </si>
-  <si>
-    <t>means comparisons in split plots, incomplete block designs</t>
-  </si>
-  <si>
-    <t>covariates, missing data</t>
-  </si>
-  <si>
-    <t>[HW 1](https://github.com/deruncie/PLS205_course/tree/master/HW/HW1)</t>
-  </si>
-  <si>
-    <t>[HW 2](https://github.com/deruncie/PLS205_course/tree/master/HW/HW2)</t>
-  </si>
-  <si>
-    <t>[HW 3](https://github.com/deruncie/PLS205_course/tree/master/HW/HW3)</t>
-  </si>
-  <si>
-    <t>[HW 4](https://github.com/deruncie/PLS205_course/tree/master/HW/HW4)</t>
-  </si>
-  <si>
-    <t>[HW 5](https://github.com/deruncie/PLS205_course/tree/master/HW/HW5)</t>
-  </si>
-  <si>
-    <t>[HW 6](https://github.com/deruncie/PLS205_course/tree/master/HW/HW6)</t>
-  </si>
-  <si>
-    <t>[HW 7](https://github.com/deruncie/PLS205_course/tree/master/HW/HW7)</t>
-  </si>
-  <si>
-    <t>[HW 8](https://github.com/deruncie/PLS205_course/tree/master/HW/HW8)</t>
-  </si>
-  <si>
-    <t>[Lab 1](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_1)</t>
-  </si>
-  <si>
-    <t>[Lab 2](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_2)</t>
-  </si>
-  <si>
-    <t>[Lab 31](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_3)</t>
-  </si>
-  <si>
-    <t>[Lab 4](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_4)</t>
-  </si>
-  <si>
-    <t>[Lab 5](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_5)</t>
-  </si>
-  <si>
-    <t>[Lab 6](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_6)</t>
-  </si>
-  <si>
-    <t>[Lab 7](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_7)</t>
-  </si>
-  <si>
-    <t>[Lab 8](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_8)</t>
-  </si>
-  <si>
-    <t>[Lab 9](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_9)</t>
-  </si>
-  <si>
-    <t>[Lab 10](https://github.com/deruncie/PLS205_course/tree/master/Labs/Lab_10)</t>
+    <t>Labs</t>
+  </si>
+  <si>
+    <t>Introduction, Estimating treatment effects</t>
+  </si>
+  <si>
+    <t>[Lecture 1](adsf/Class_1.pdf) [Lecture 2](adsf/Class_2.pdf)</t>
+  </si>
+  <si>
+    <t>[Lab 1](fda/Lab1.zip)</t>
+  </si>
+  <si>
+    <t>Standard Errors and Confidence Intervals; Indirect estimates</t>
+  </si>
+  <si>
+    <t>[Lecture 3](adsf/Class_3.pdf) [Lecture 4](adsf/Class_4.pdf)</t>
+  </si>
+  <si>
+    <t>[Lab 2](fda/Lab2.zip)</t>
+  </si>
+  <si>
+    <t>Analysis of Design 1 - Indirect estimation; Analysis of Design 3 - Subsamples; Comparisons of Designs 1-3</t>
+  </si>
+  <si>
+    <t>[Lecture 5](adsf/Class_5.pdf) [Lecture 6](adsf/Class_6.pdf)</t>
+  </si>
+  <si>
+    <t>[Lab 3](fda/Lab3.zip)</t>
+  </si>
+  <si>
+    <t>When treatments have &gt;2 levels; ANOVA</t>
+  </si>
+  <si>
+    <t>[Lecture 7](adsf/Class_7.pdf) [Lecture 8](adsf/Class_8.pdf)</t>
+  </si>
+  <si>
+    <t>[Lab 4](fda/Lab4.zip)</t>
+  </si>
+  <si>
+    <t>Data Transformations; Replication</t>
+  </si>
+  <si>
+    <t>[Lecture 9](adsf/Class_9.pdf) [Lecture 10](adsf/Class_10.pdf)</t>
+  </si>
+  <si>
+    <t>[Lab 5](fda/Lab5.zip)</t>
+  </si>
+  <si>
+    <t>Introduction to Factorials; More factorials</t>
+  </si>
+  <si>
+    <t>[Lecture 11](adsf/Class_11.pdf) [Lecture 12](adsf/Class_12.pdf)</t>
+  </si>
+  <si>
+    <t>[Lab 6](fda/Lab6.zip)</t>
+  </si>
+  <si>
+    <t>Continuation of Factorials, intro to the RCBD; Generalized RCBD</t>
+  </si>
+  <si>
+    <t>[Lecture 13](adsf/Class_13.pdf) [Lecture 14](adsf/Class_14.pdf)</t>
+  </si>
+  <si>
+    <t>[Lab 7](fda/Lab7.zip)</t>
+  </si>
+  <si>
+    <t>RCBD with replicates; Incomplete Blocks</t>
+  </si>
+  <si>
+    <t>[Lecture 15](adsf/Class_15.pdf) [Lecture 16](adsf/Class_16.pdf)</t>
+  </si>
+  <si>
+    <t>[Lab 8](fda/Lab8.zip)</t>
+  </si>
+  <si>
+    <t>Split Plot designs; More split plots!</t>
+  </si>
+  <si>
+    <t>[Lecture 17](adsf/Class_17.pdf) [Lecture 18](adsf/Class_18.pdf)</t>
+  </si>
+  <si>
+    <t>[Lab 9](fda/Lab9.zip)</t>
+  </si>
+  <si>
+    <t>More Split Plots; Review</t>
+  </si>
+  <si>
+    <t>[Lecture 19](adsf/Class_19.pdf) [Lecture 20](adsf/Class_20.pdf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2D3B45"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,21 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2880AA8B-5E45-B847-8B59-9BCA080C2C57}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,172 +515,142 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
